--- a/biology/Médecine/1261_en_santé_et_médecine/1261_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1261_en_santé_et_médecine/1261_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1261_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1261_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1261 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1261_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1261_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Juillet : à la reprise de Constantinople par Alexis Strategopoulos, les chevaliers latins sont chassés de l'hôpital du monastère du Christ Pantocrator[1].
-Le vingt-cinquième synode de Mayence demande que chaque monastère soit pourvu d’une infirmerie pour les vieillards[2].
-Fondation de la maison-Dieu de Gerbonvaux, en Lorraine, par Geoffroy de Bourlémont, sénéchal de Navarre, et Sibylle de Saussure, sa femme[3].
-Première mention de l'hôpital de Signes, en Provence, « dans le testament d'un nommé Guillaume Barry[4] ».
-Une pharmacie est attestée à Trogir, en Croatie[5].
-1261-1262 : fondation à Basingstoke, dans le Hampshire en Angleterre, par Walter de Merton (en), de l'hôpital Saint-Jean Baptiste (Hospital of St. John the Baptist), destiné à l'accueil des membres du clergé dans le besoin[6].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Juillet : à la reprise de Constantinople par Alexis Strategopoulos, les chevaliers latins sont chassés de l'hôpital du monastère du Christ Pantocrator.
+Le vingt-cinquième synode de Mayence demande que chaque monastère soit pourvu d’une infirmerie pour les vieillards.
+Fondation de la maison-Dieu de Gerbonvaux, en Lorraine, par Geoffroy de Bourlémont, sénéchal de Navarre, et Sibylle de Saussure, sa femme.
+Première mention de l'hôpital de Signes, en Provence, « dans le testament d'un nommé Guillaume Barry ».
+Une pharmacie est attestée à Trogir, en Croatie.
+1261-1262 : fondation à Basingstoke, dans le Hampshire en Angleterre, par Walter de Merton (en), de l'hôpital Saint-Jean Baptiste (Hospital of St. John the Baptist), destiné à l'accueil des membres du clergé dans le besoin.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1261_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1261_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Peu après 1261 : parution du Commentaire sur l'Antidotaire de Nicolas[7] (Expositio supra Antidotarium Nicolai), de Jean de Saint-Amand (fl. 1261-1298[8]).</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Peu après 1261 : parution du Commentaire sur l'Antidotaire de Nicolas (Expositio supra Antidotarium Nicolai), de Jean de Saint-Amand (fl. 1261-1298).</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1261_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1261_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,14 +592,16 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. Girard, barbier à Poitiers[9].
-Fl. Jean, barbier du roi de France Louis IX[9].
-Fl. Raoul, bourgeois, dit « le Médecin » dans un acte du Parlement de Paris, « mais ce n'est peut-être là qu'un surnom[10] ».
-Vers 1261 ? : fl. Démétrios Pépagoménos, médecin de Michel Paléologue, empereur byzantin[11].
-1261-1284 : fl. Étienne de Jancigny, médecin à Dijon, enterré à l'abbaye de Saint-Bénigne[9].
-1261-après 1298 : fl. Jean de Saint-Amand, médecin, « contemporain de Gautier de Croix, évêque de Tournai, qu'il assist[e] sans doute à ses derniers moments, en 1261 », peut-être professeur à Paris, auteur de nombreux ouvrages médicaux[10].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. Girard, barbier à Poitiers.
+Fl. Jean, barbier du roi de France Louis IX.
+Fl. Raoul, bourgeois, dit « le Médecin » dans un acte du Parlement de Paris, « mais ce n'est peut-être là qu'un surnom ».
+Vers 1261 ? : fl. Démétrios Pépagoménos, médecin de Michel Paléologue, empereur byzantin.
+1261-1284 : fl. Étienne de Jancigny, médecin à Dijon, enterré à l'abbaye de Saint-Bénigne.
+1261-après 1298 : fl. Jean de Saint-Amand, médecin, « contemporain de Gautier de Croix, évêque de Tournai, qu'il assist[e] sans doute à ses derniers moments, en 1261 », peut-être professeur à Paris, auteur de nombreux ouvrages médicaux.</t>
         </is>
       </c>
     </row>
